--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -20,7 +20,7 @@
     <t>Meslek</t>
   </si>
   <si>
-    <t>Sehir</t>
+    <t>Şehir</t>
   </si>
   <si>
     <t>Kodu</t>
